--- a/Diagnosis/cstr_model/Fault 1_Bias/Diagnosis summary.xlsx
+++ b/Diagnosis/cstr_model/Fault 1_Bias/Diagnosis summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10506"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikarrajcomar/Documents/GitHub/Classification_diagnosis/Diagnosis/cstr_model/Fault 1_Bias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1FBE32-BCB7-C64F-BBF3-4D91DD077173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F161D2-BFE2-F34F-843C-2F5D92B969BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{8C7A6969-80E9-2346-A203-10F31CA615BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Fault</t>
   </si>
@@ -104,17 +104,53 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>This experiment tests an unoptimized ensemble model.Each fault portion of data is passed through and overall 50% of records have been flagged correctly the main sensor being !c has been picked up as the fault in most conditions</t>
+  </si>
+  <si>
+    <t>Experiment 1-Ensemble model</t>
+  </si>
+  <si>
+    <t>Experiment 2-Knowledge Distillation</t>
+  </si>
+  <si>
+    <t>Qc but T is second highest</t>
+  </si>
+  <si>
+    <t>Qc but Tc is second highest</t>
+  </si>
+  <si>
+    <t>Qc but Ti is second highest</t>
+  </si>
+  <si>
+    <t>Qc but Tci is second highest</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>std scaler</t>
+  </si>
+  <si>
+    <t>minmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qc is second highest</t>
+  </si>
+  <si>
+    <t>This experiment tests an unoptimized ensemble model that also takes the main AE recon as an input.Each fault portion of data is passed through and overall 50% of records have been flagged correctly the main sensor being !c has been picked up as the fault in most conditions</t>
+  </si>
+  <si>
+    <t>Experiment 3:Logarithmic Transformation</t>
+  </si>
+  <si>
+    <t>feature eng ci</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -151,13 +195,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,146 +541,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFF3549-28CF-9345-AFDF-ED5FD0F7C8E9}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -642,18 +664,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -664,27 +686,27 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -697,12 +719,397 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2">
-        <f>SUM(D2:D11)/10</f>
+      <c r="D14" s="2">
+        <f>SUM(D4:D13)/10</f>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <f>SUM(D19:D28)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="2">
+        <f>SUM(G19:G28)/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="J29" s="2">
+        <f>SUM(J19:J28)/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
